--- a/tests/data_up_to_S2022T04/Torneo S2022T02 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T02 para publicar.xlsx
@@ -14693,44 +14693,44 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="D6" s="4">
-        <v>250.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4">
-        <v>250.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4">
-        <v>250.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="9">
@@ -14749,44 +14749,44 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4">
-        <v>500.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4">
-        <v>500.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4">
-        <v>750.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="13">
@@ -14811,30 +14811,30 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="D15" s="4">
-        <v>75.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>167</v>
+        <v>327</v>
       </c>
       <c r="D16" s="4">
-        <v>250.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="17">
@@ -14853,21 +14853,21 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D18" s="4">
-        <v>125.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>41</v>
@@ -14881,7 +14881,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>41</v>
@@ -14895,7 +14895,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>41</v>
@@ -14909,30 +14909,30 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="D22" s="4">
-        <v>375.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="D23" s="4">
-        <v>500.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -14943,114 +14943,114 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="D25" s="4">
-        <v>65.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="D26" s="4">
-        <v>65.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D27" s="4">
-        <v>65.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D28" s="4">
-        <v>65.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D29" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D30" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D31" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D32" s="4">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -15083,7 +15083,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>67</v>
@@ -15097,58 +15097,58 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D36" s="4">
-        <v>125.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D37" s="4">
-        <v>125.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="D38" s="4">
-        <v>190.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="D39" s="4">
-        <v>250.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1"/>

--- a/tests/data_up_to_S2022T04/Torneo S2022T02 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T02 para publicar.xlsx
@@ -2413,22 +2413,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Migoni, Nicolas (1535)</t>
+          <t>Bonelli, Marcos (951)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2455,37 +2455,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bonelli, Marcos (951)</t>
+          <t>Migoni, Nicolas (1535)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>zona</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>primera</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>zona</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>primera</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2665,22 +2665,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Palamedi, Cristian (966)</t>
+          <t>Nohara, Andres (1375)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>602</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nohara, Andres (1375)</t>
+          <t>Palamedi, Cristian (966)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3169,22 +3169,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Levin, Raul (994)</t>
+          <t>Acosta, Gaston (478)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -3211,37 +3211,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Acosta, Gaston (478)</t>
+          <t>Levin, Raul (994)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>zona</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>segunda</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>zona</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>segunda</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3337,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Goy, Gerardo (954)</t>
+          <t>Escudero, Martin (956)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3379,12 +3379,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Escudero, Martin (956)</t>
+          <t>Goy, Gerardo (954)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>421</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3421,22 +3421,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Palamedi, Cristian (966)</t>
+          <t>Bonelli, Marcos (951)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3463,22 +3463,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bonelli, Marcos (951)</t>
+          <t>Palamedi, Cristian (966)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4219,22 +4219,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Migoni, Anibal (1010)</t>
+          <t>Larrosa, Jorge (525)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Larrosa, Jorge (525)</t>
+          <t>Migoni, Anibal (1010)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-64</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Palamedi, Cristian</t>
+          <t>Nohara, Andres</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nohara, Andres</t>
+          <t>Palamedi, Cristian</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Goy, Gerardo</t>
+          <t>Escudero, Martin</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Escudero, Martin</t>
+          <t>Goy, Gerardo</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Prettis, Juan</t>
+          <t>Benicio, Oscar</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Benicio, Oscar</t>
+          <t>Prettis, Juan</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -10559,12 +10559,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nowotny, Martin</t>
+          <t>Dupertuis, Gaston</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -10574,17 +10579,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dupertuis, Gaston</t>
+          <t>Nowotny, Martin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
     </row>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>La Barba, Pablo</t>
+          <t>Aguirre, German</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aguirre, German</t>
+          <t>La Barba, Pablo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -11274,7 +11274,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sueldo, Pablo</t>
+          <t>Sartor, Yemel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Avellaneda</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ATMAR</t>
         </is>
       </c>
     </row>
@@ -11284,17 +11294,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sartor, Yemel</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Avellaneda</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ATMAR</t>
+          <t>Sueldo, Pablo</t>
         </is>
       </c>
     </row>
@@ -11509,17 +11509,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Maerker, Shion</t>
+          <t>Becker, Fernando</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -11529,17 +11529,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Becker, Fernando</t>
+          <t>Maerker, Shion</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -11584,17 +11584,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chiara, Lucio</t>
+          <t>Campos, Dario</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>Atemeli</t>
         </is>
       </c>
     </row>
@@ -11604,17 +11604,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Campos, Dario</t>
+          <t>Chiara, Lucio</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Atemeli</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lerch, Juan Carlos</t>
+          <t>Gimenez, Maximo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tiro Federal</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gimenez, Maximo</t>
+          <t>Lerch, Juan Carlos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -12004,12 +12004,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mendieta, Elias</t>
+          <t>Arrieta, Maximiliano</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -12019,17 +12024,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Badano, Pablo</t>
+          <t>Asenie, Santiago</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
     </row>
@@ -12039,12 +12039,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Asenie, Santiago</t>
+          <t>Badano, Pablo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -12074,17 +12079,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Presel, Raul</t>
+          <t>Mendieta, Elias</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Santa Fe</t>
         </is>
       </c>
     </row>
@@ -12094,17 +12094,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Arrieta, Maximiliano</t>
+          <t>Presel, Raul</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Martinez, Dylan</t>
+          <t>Aguirre, Gabriel</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13109,17 +13119,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Aguirre, Gabriel</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Martinez, Dylan</t>
         </is>
       </c>
     </row>
@@ -13199,17 +13199,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Werner, Graciela</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Rodriguez Alarcon Emiliano</t>
         </is>
       </c>
     </row>
@@ -13219,7 +13209,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rodriguez Alarcon Emiliano</t>
+          <t>Werner, Graciela</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Mir, Tomas</t>
+          <t>Javita, Luis</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -13249,17 +13259,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Javita, Luis</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Mir, Tomas</t>
         </is>
       </c>
     </row>
@@ -13384,7 +13384,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Michea, Ignacio</t>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -13394,17 +13404,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Michea, Ignacio</t>
         </is>
       </c>
     </row>
@@ -13449,17 +13449,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Portillo, Lucas</t>
+          <t>Arrieta, Matias</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Esperanza</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ATME</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -13484,17 +13484,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Arrieta, Matias</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Muller, Tomas</t>
         </is>
       </c>
     </row>
@@ -13504,7 +13494,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Muller, Tomas</t>
+          <t>Portillo, Lucas</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ATME</t>
         </is>
       </c>
     </row>
@@ -13564,17 +13564,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pillac, Juan Pablo</t>
+          <t>Comas, Javier</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13584,17 +13584,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Comas, Javier</t>
+          <t>Pillac, Juan Pablo</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -13724,17 +13724,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Vergara, Gustavo</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Tiro Federal</t>
+          <t>Godano, Lucas</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13734,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Godano, Lucas</t>
+          <t>Vergara, Gustavo</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Musuruana, Francisco</t>
+          <t>Escalante, Samuel</t>
         </is>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Escalante, Samuel</t>
+          <t>Musuruana, Francisco</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ferrero, Alejandro</t>
+          <t>Antunez, Pablo</t>
         </is>
       </c>
     </row>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Antunez, Pablo</t>
+          <t>Ferrero, Alejandro</t>
         </is>
       </c>
     </row>
@@ -14184,7 +14184,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Velazquez, Pedro</t>
+          <t>Lell, Claudia</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -14194,17 +14204,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Lell, Claudia</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Tiro Federal</t>
+          <t>Velazquez, Pedro</t>
         </is>
       </c>
     </row>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Bertoli, Maximiliano</t>
+          <t>Bertoli, Julian</t>
         </is>
       </c>
     </row>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Bertoli, Julian</t>
+          <t>Bertoli, Maximiliano</t>
         </is>
       </c>
     </row>
@@ -14314,17 +14314,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Seib, Silvia</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Macor, Mateo</t>
         </is>
       </c>
     </row>
@@ -14334,7 +14324,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Macor, Mateo</t>
+          <t>Seib, Silvia</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>

--- a/tests/data_up_to_S2022T04/Torneo S2022T02 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T02 para publicar.xlsx
@@ -1804,8 +1804,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4718,8 +4718,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6574,8 +6574,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1000 (T01) + 1000 (T02)</t>
+          <t>1000 (T02) + 1000 (T01)</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>500 (T01) + 500 (T02)</t>
+          <t>500 (T02) + 500 (T01)</t>
         </is>
       </c>
     </row>
@@ -7047,8 +7047,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>250 (T01) + 250 (T02)</t>
+          <t>250 (T02) + 250 (T01)</t>
         </is>
       </c>
     </row>
@@ -7525,8 +7525,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8164,8 +8164,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8906,8 +8906,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
